--- a/reports/resnet18_23_no_MMTM/prediction/2/probability_train_2.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/2/probability_train_2.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.161273866891861</v>
+        <v>0.2422002404928207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8387261629104614</v>
+        <v>0.7577997446060181</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2829432189464569</v>
+        <v>0.6731414198875427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7170567512512207</v>
+        <v>0.3268585801124573</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3157628178596497</v>
+        <v>0.847578763961792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6842372417449951</v>
+        <v>0.152421161532402</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1851857304573059</v>
+        <v>0.4138277471065521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8148142695426941</v>
+        <v>0.586172342300415</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4835377335548401</v>
+        <v>0.8415539264678955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5164622664451599</v>
+        <v>0.1584460288286209</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3283350467681885</v>
+        <v>0.2231910228729248</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6716649532318115</v>
+        <v>0.7768089771270752</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4825433790683746</v>
+        <v>0.4456673264503479</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5174566507339478</v>
+        <v>0.5543326735496521</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7060551047325134</v>
+        <v>0.8337922096252441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2939448952674866</v>
+        <v>0.1662078201770782</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6326444745063782</v>
+        <v>0.5459097623825073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3673555254936218</v>
+        <v>0.4540902674198151</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4893158078193665</v>
+        <v>0.5808835625648499</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5106842517852783</v>
+        <v>0.4191164374351501</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1306762993335724</v>
+        <v>0.06907094269990921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.86932373046875</v>
+        <v>0.9309290647506714</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1914752125740051</v>
+        <v>0.3438013195991516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8085247278213501</v>
+        <v>0.6561986207962036</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1775084286928177</v>
+        <v>0.4334263801574707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8224915862083435</v>
+        <v>0.5665736198425293</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1750690340995789</v>
+        <v>0.278480589389801</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8249310255050659</v>
+        <v>0.721519410610199</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5780180692672729</v>
+        <v>0.4775653481483459</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4219819307327271</v>
+        <v>0.5224345922470093</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6835898160934448</v>
+        <v>0.8710758090019226</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3164101839065552</v>
+        <v>0.1289242208003998</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.226542741060257</v>
+        <v>0.3537431955337524</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7734572887420654</v>
+        <v>0.6462568044662476</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7031059265136719</v>
+        <v>0.9534384608268738</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2968941032886505</v>
+        <v>0.04656153917312622</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3542214035987854</v>
+        <v>0.945146918296814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6457785367965698</v>
+        <v>0.05485304072499275</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2305341958999634</v>
+        <v>0.6831820011138916</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7694658041000366</v>
+        <v>0.3168179988861084</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2528698146343231</v>
+        <v>0.3402929902076721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7471302151679993</v>
+        <v>0.6597070097923279</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5396440625190735</v>
+        <v>0.8797129392623901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4603559374809265</v>
+        <v>0.1202870607376099</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5712472796440125</v>
+        <v>0.9490063190460205</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4287527203559875</v>
+        <v>0.0509936660528183</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5579771399497986</v>
+        <v>0.6616349220275879</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4420228600502014</v>
+        <v>0.3383650183677673</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1821943372488022</v>
+        <v>0.06863748282194138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8178056478500366</v>
+        <v>0.931362509727478</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2621721923351288</v>
+        <v>0.5629051923751831</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7378277778625488</v>
+        <v>0.4370948076248169</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.25675368309021</v>
+        <v>0.1349198818206787</v>
       </c>
       <c r="C28" t="n">
-        <v>0.74324631690979</v>
+        <v>0.8650801181793213</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1683388650417328</v>
+        <v>0.3032858371734619</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8316611647605896</v>
+        <v>0.6967141628265381</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3118375837802887</v>
+        <v>0.3223956823348999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6881623864173889</v>
+        <v>0.6776043176651001</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.197841465473175</v>
+        <v>0.2764656543731689</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8021584749221802</v>
+        <v>0.7235343456268311</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1529369652271271</v>
+        <v>0.2140482366085052</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8470630049705505</v>
+        <v>0.7859517335891724</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3250992596149445</v>
+        <v>0.4274677038192749</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6749007701873779</v>
+        <v>0.5725322961807251</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2096515893936157</v>
+        <v>0.6621090173721313</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7903484106063843</v>
+        <v>0.3378909826278687</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1851588785648346</v>
+        <v>0.06504809856414795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8148411512374878</v>
+        <v>0.9349519014358521</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6146090030670166</v>
+        <v>0.807672381401062</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3853910565376282</v>
+        <v>0.1923276036977768</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.218188613653183</v>
+        <v>0.7810676693916321</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7818114161491394</v>
+        <v>0.2189322710037231</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5639682412147522</v>
+        <v>0.4238042831420898</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4360317587852478</v>
+        <v>0.5761957168579102</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1472436338663101</v>
+        <v>0.07738752663135529</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8527563214302063</v>
+        <v>0.9226124286651611</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1298751384019852</v>
+        <v>0.1340069323778152</v>
       </c>
       <c r="C40" t="n">
-        <v>0.870124876499176</v>
+        <v>0.8659930229187012</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4937863349914551</v>
+        <v>0.6737440824508667</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5062137246131897</v>
+        <v>0.3262558877468109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2771247625350952</v>
+        <v>0.3677381575107574</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7228752374649048</v>
+        <v>0.6322618126869202</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2666780352592468</v>
+        <v>0.2355276793241501</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7333219051361084</v>
+        <v>0.7644723653793335</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.188899502158165</v>
+        <v>0.05896355211734772</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8111004829406738</v>
+        <v>0.9410364031791687</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1553614735603333</v>
+        <v>0.1277181804180145</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8446385264396667</v>
+        <v>0.8722817897796631</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2539386749267578</v>
+        <v>0.4581910371780396</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7460613250732422</v>
+        <v>0.5418089628219604</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2174322903156281</v>
+        <v>0.1572258919477463</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7825677394866943</v>
+        <v>0.8427740931510925</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2928987145423889</v>
+        <v>0.5843844413757324</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7071013450622559</v>
+        <v>0.4156155586242676</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2190061211585999</v>
+        <v>0.2731885612010956</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7809938788414001</v>
+        <v>0.726811408996582</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3132117688655853</v>
+        <v>0.5388978719711304</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6867882013320923</v>
+        <v>0.4611021280288696</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2249245941638947</v>
+        <v>0.7195721864700317</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7750754356384277</v>
+        <v>0.280427873134613</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1913216710090637</v>
+        <v>0.8239316344261169</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8086783289909363</v>
+        <v>0.1760683357715607</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2543701529502869</v>
+        <v>0.4227587580680847</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7456297874450684</v>
+        <v>0.5772412419319153</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3005552589893341</v>
+        <v>0.8398289084434509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6994447708129883</v>
+        <v>0.1601710617542267</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.6563338041305542</v>
+        <v>0.9608287215232849</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3436662554740906</v>
+        <v>0.03917131200432777</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1543449312448502</v>
+        <v>0.1048485338687897</v>
       </c>
       <c r="C56" t="n">
-        <v>0.845655083656311</v>
+        <v>0.8951514959335327</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.201473593711853</v>
+        <v>0.1618238687515259</v>
       </c>
       <c r="C57" t="n">
-        <v>0.798526406288147</v>
+        <v>0.8381761312484741</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2155920416116714</v>
+        <v>0.348200798034668</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7844079732894897</v>
+        <v>0.651799201965332</v>
       </c>
       <c r="D58" t="n">
         <v>1</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2260255962610245</v>
+        <v>0.4078918099403381</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7739744186401367</v>
+        <v>0.5921082496643066</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2737396359443665</v>
+        <v>0.2195606529712677</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7262603640556335</v>
+        <v>0.7804393172264099</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2411364167928696</v>
+        <v>0.1847698986530304</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7588635683059692</v>
+        <v>0.815230131149292</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5615551471710205</v>
+        <v>0.8676779270172119</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4384447932243347</v>
+        <v>0.1323221623897552</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1366077065467834</v>
+        <v>0.1626999974250793</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8633922338485718</v>
+        <v>0.8373000025749207</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.5340371131896973</v>
+        <v>0.5837339162826538</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4659628868103027</v>
+        <v>0.4162661135196686</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2255656272172928</v>
+        <v>0.4081588089466095</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7744343280792236</v>
+        <v>0.5918412208557129</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2771181762218475</v>
+        <v>0.9240807294845581</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7228818535804749</v>
+        <v>0.0759192630648613</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.5639646053314209</v>
+        <v>0.8406896591186523</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4360354244709015</v>
+        <v>0.1593103110790253</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1463693827390671</v>
+        <v>0.1029254645109177</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8536306023597717</v>
+        <v>0.8970745205879211</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1851886212825775</v>
+        <v>0.4411409199237823</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8148113489151001</v>
+        <v>0.55885910987854</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.2933781743049622</v>
+        <v>0.9394556879997253</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7066218256950378</v>
+        <v>0.06054428592324257</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2017757147550583</v>
+        <v>0.5139146447181702</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7982243299484253</v>
+        <v>0.4860853552818298</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1719997078180313</v>
+        <v>0.1512619853019714</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8280003070831299</v>
+        <v>0.8487380743026733</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.2501421272754669</v>
+        <v>0.6953103542327881</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7498578429222107</v>
+        <v>0.3046896755695343</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1936530321836472</v>
+        <v>0.2956830263137817</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8063468933105469</v>
+        <v>0.7043169736862183</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2884416282176971</v>
+        <v>0.1286729425191879</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7115583419799805</v>
+        <v>0.8713270425796509</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2158692628145218</v>
+        <v>0.2274175137281418</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7841306924819946</v>
+        <v>0.772582471370697</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3259556293487549</v>
+        <v>0.5835559368133545</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6740443706512451</v>
+        <v>0.4164441227912903</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6916810274124146</v>
+        <v>0.9085838794708252</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3083190321922302</v>
+        <v>0.09141610562801361</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2195292413234711</v>
+        <v>0.08327289670705795</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7804707288742065</v>
+        <v>0.9167270660400391</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3321872353553772</v>
+        <v>0.442270815372467</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6678127646446228</v>
+        <v>0.557729184627533</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.2311971187591553</v>
+        <v>0.2015010714530945</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7688028812408447</v>
+        <v>0.7984989881515503</v>
       </c>
       <c r="D81" t="n">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5398889780044556</v>
+        <v>0.4760089814662933</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4601109623908997</v>
+        <v>0.5239909887313843</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2071628570556641</v>
+        <v>0.1890813410282135</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7928371429443359</v>
+        <v>0.8109186291694641</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6863709688186646</v>
+        <v>0.8941240310668945</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3136289715766907</v>
+        <v>0.1058759093284607</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2488084137439728</v>
+        <v>0.4298084080219269</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7511916160583496</v>
+        <v>0.5701916217803955</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1857278943061829</v>
+        <v>0.2033416032791138</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8142720460891724</v>
+        <v>0.7966583967208862</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.137920543551445</v>
+        <v>0.1689129173755646</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8620795011520386</v>
+        <v>0.831087052822113</v>
       </c>
       <c r="D87" t="n">
         <v>1</v>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1687960922718048</v>
+        <v>0.2823513746261597</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8312039375305176</v>
+        <v>0.7176486253738403</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3308618068695068</v>
+        <v>0.0838732048869133</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6691381931304932</v>
+        <v>0.9161267876625061</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1383153051137924</v>
+        <v>0.1788314878940582</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8616846799850464</v>
+        <v>0.8211685419082642</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.5686354637145996</v>
+        <v>0.9312616586685181</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4313645362854004</v>
+        <v>0.06873837113380432</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2617535591125488</v>
+        <v>0.7056466937065125</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7382464408874512</v>
+        <v>0.2943533062934875</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.3261112570762634</v>
+        <v>0.7091572284698486</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6738888025283813</v>
+        <v>0.2908428311347961</v>
       </c>
       <c r="D93" t="n">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.5735044479370117</v>
+        <v>0.9178824424743652</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4264955520629883</v>
+        <v>0.08211752772331238</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2051863968372345</v>
+        <v>0.101887010037899</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7948136329650879</v>
+        <v>0.8981130123138428</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4839422106742859</v>
+        <v>0.5619650483131409</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5160577893257141</v>
+        <v>0.4380349218845367</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1489933431148529</v>
+        <v>0.1272909790277481</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8510066270828247</v>
+        <v>0.8727090358734131</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1520274877548218</v>
+        <v>0.04179448634386063</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8479725122451782</v>
+        <v>0.95820552110672</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.2383126318454742</v>
+        <v>0.5674773454666138</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7616873979568481</v>
+        <v>0.4325226545333862</v>
       </c>
       <c r="D99" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2192145884037018</v>
+        <v>0.5261813402175903</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7807854413986206</v>
+        <v>0.4738186001777649</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.237241268157959</v>
+        <v>0.2338660210371017</v>
       </c>
       <c r="C101" t="n">
-        <v>0.762758731842041</v>
+        <v>0.7661339640617371</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.2656671404838562</v>
+        <v>0.7947381734848022</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7343328595161438</v>
+        <v>0.2052618265151978</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2225507199764252</v>
+        <v>0.0947391539812088</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7774493098258972</v>
+        <v>0.9052608609199524</v>
       </c>
       <c r="D103" t="n">
         <v>1</v>
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1343646198511124</v>
+        <v>0.1613249778747559</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8656353950500488</v>
+        <v>0.8386750221252441</v>
       </c>
       <c r="D104" t="n">
         <v>1</v>
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1971411406993866</v>
+        <v>0.302204430103302</v>
       </c>
       <c r="C105" t="n">
-        <v>0.802858829498291</v>
+        <v>0.697795569896698</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.6239955425262451</v>
+        <v>0.9633986353874207</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3760044574737549</v>
+        <v>0.03660137951374054</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2253433465957642</v>
+        <v>0.5093021392822266</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7746566534042358</v>
+        <v>0.4906978905200958</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1975314021110535</v>
+        <v>0.2938861846923828</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8024685382843018</v>
+        <v>0.7061138153076172</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1449292600154877</v>
+        <v>0.2061422914266586</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8550707101821899</v>
+        <v>0.7938576936721802</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1419472098350525</v>
+        <v>0.1532540917396545</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8580528497695923</v>
+        <v>0.8467458486557007</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.2254409492015839</v>
+        <v>0.2884903252124786</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7745590806007385</v>
+        <v>0.7115097045898438</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.3648473620414734</v>
+        <v>0.2726503610610962</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6351526379585266</v>
+        <v>0.7273496389389038</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.3871428072452545</v>
+        <v>0.8473994731903076</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6128572225570679</v>
+        <v>0.1526004821062088</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1573835462331772</v>
+        <v>0.5626236200332642</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8426163792610168</v>
+        <v>0.4373764395713806</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1733634769916534</v>
+        <v>0.06477551907300949</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8266365528106689</v>
+        <v>0.9352244734764099</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.369206577539444</v>
+        <v>0.8379528522491455</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6307934522628784</v>
+        <v>0.1620471477508545</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.4220579266548157</v>
+        <v>0.4930510520935059</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5779420733451843</v>
+        <v>0.5069489479064941</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2313,10 +2313,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.3574009239673615</v>
+        <v>0.04761619865894318</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6425990462303162</v>
+        <v>0.9523837566375732</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.2329064756631851</v>
+        <v>0.6596729755401611</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7670935392379761</v>
+        <v>0.3403270244598389</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1968971192836761</v>
+        <v>0.7585639953613281</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8031028509140015</v>
+        <v>0.2414359450340271</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.2356651127338409</v>
+        <v>0.3117102682590485</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7643349170684814</v>
+        <v>0.6882897019386292</v>
       </c>
       <c r="D121" t="n">
         <v>1</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1640123277902603</v>
+        <v>0.1706416606903076</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8359876871109009</v>
+        <v>0.8293583393096924</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1738970875740051</v>
+        <v>0.102868065237999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8261028528213501</v>
+        <v>0.8971319198608398</v>
       </c>
       <c r="D123" t="n">
         <v>1</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.2472603321075439</v>
+        <v>0.1900896728038788</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7527396678924561</v>
+        <v>0.8099103569984436</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.247483879327774</v>
+        <v>0.4674815833568573</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7525161504745483</v>
+        <v>0.5325183868408203</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.287023663520813</v>
+        <v>0.5791661143302917</v>
       </c>
       <c r="C126" t="n">
-        <v>0.712976336479187</v>
+        <v>0.4208338856697083</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1706569641828537</v>
+        <v>0.1370367854833603</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8293430209159851</v>
+        <v>0.8629632592201233</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.2447291016578674</v>
+        <v>0.7113512754440308</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7552708983421326</v>
+        <v>0.2886487543582916</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.1925065964460373</v>
+        <v>0.6310998201370239</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8074934482574463</v>
+        <v>0.3689001202583313</v>
       </c>
       <c r="D129" t="n">
         <v>1</v>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5030344128608704</v>
+        <v>0.3653391599655151</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4969655871391296</v>
+        <v>0.6346608400344849</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.2212501764297485</v>
+        <v>0.4161369800567627</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7787498235702515</v>
+        <v>0.5838630199432373</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2537,10 +2537,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.2590762376785278</v>
+        <v>0.2977355718612671</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7409237623214722</v>
+        <v>0.7022644281387329</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.2084657847881317</v>
+        <v>0.1970153450965881</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7915342450141907</v>
+        <v>0.8029846549034119</v>
       </c>
       <c r="D133" t="n">
         <v>1</v>
@@ -2569,10 +2569,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.1304343789815903</v>
+        <v>0.1754080057144165</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8695656657218933</v>
+        <v>0.8245919942855835</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -2585,10 +2585,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.3107901811599731</v>
+        <v>0.4399688839912415</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6892098188400269</v>
+        <v>0.5600311756134033</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.4883009791374207</v>
+        <v>0.9191969633102417</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5116990804672241</v>
+        <v>0.08080299198627472</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.2755793333053589</v>
+        <v>0.6771507263183594</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7244207262992859</v>
+        <v>0.322849303483963</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.2762829065322876</v>
+        <v>0.4516195058822632</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7237170934677124</v>
+        <v>0.5483804941177368</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.3348495066165924</v>
+        <v>0.04309263452887535</v>
       </c>
       <c r="C139" t="n">
-        <v>0.66515052318573</v>
+        <v>0.9569073915481567</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.2153978645801544</v>
+        <v>0.1461953371763229</v>
       </c>
       <c r="C140" t="n">
-        <v>0.784602165222168</v>
+        <v>0.8538047075271606</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.1550251841545105</v>
+        <v>0.06277540326118469</v>
       </c>
       <c r="C141" t="n">
-        <v>0.8449748158454895</v>
+        <v>0.9372246265411377</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.2608203589916229</v>
+        <v>0.4974185228347778</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7391797304153442</v>
+        <v>0.5025814771652222</v>
       </c>
       <c r="D142" t="n">
         <v>1</v>
@@ -2713,10 +2713,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.2385538369417191</v>
+        <v>0.8757895231246948</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7614461183547974</v>
+        <v>0.1242105290293694</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.1444239616394043</v>
+        <v>0.04985626041889191</v>
       </c>
       <c r="C144" t="n">
-        <v>0.8555760383605957</v>
+        <v>0.9501437544822693</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.143447145819664</v>
+        <v>0.1148247569799423</v>
       </c>
       <c r="C145" t="n">
-        <v>0.8565528392791748</v>
+        <v>0.8851752281188965</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2761,10 +2761,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.2102174013853073</v>
+        <v>0.2670929729938507</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7897826433181763</v>
+        <v>0.7329069972038269</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2777,10 +2777,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.1668246984481812</v>
+        <v>0.3261871635913849</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8331753015518188</v>
+        <v>0.6738128066062927</v>
       </c>
       <c r="D147" t="n">
         <v>1</v>
@@ -2793,10 +2793,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.1464893966913223</v>
+        <v>0.1927099525928497</v>
       </c>
       <c r="C148" t="n">
-        <v>0.8535106182098389</v>
+        <v>0.8072900176048279</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.1672388911247253</v>
+        <v>0.8905804753303528</v>
       </c>
       <c r="C149" t="n">
-        <v>0.8327611088752747</v>
+        <v>0.1094195619225502</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.2583772540092468</v>
+        <v>0.3390366435050964</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7416227459907532</v>
+        <v>0.6609634160995483</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.633956253528595</v>
+        <v>0.9376357793807983</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3660437762737274</v>
+        <v>0.06236422434449196</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.2175648063421249</v>
+        <v>0.04759560525417328</v>
       </c>
       <c r="C152" t="n">
-        <v>0.7824351787567139</v>
+        <v>0.9524043798446655</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.3735820949077606</v>
+        <v>0.6923345923423767</v>
       </c>
       <c r="C153" t="n">
-        <v>0.626417875289917</v>
+        <v>0.3076654076576233</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.5785061120986938</v>
+        <v>0.9208278656005859</v>
       </c>
       <c r="C154" t="n">
-        <v>0.4214938879013062</v>
+        <v>0.07917212694883347</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -2905,10 +2905,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.2127081453800201</v>
+        <v>0.1806524097919464</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7872918844223022</v>
+        <v>0.8193475604057312</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.5284202098846436</v>
+        <v>0.1896301209926605</v>
       </c>
       <c r="C156" t="n">
-        <v>0.4715797901153564</v>
+        <v>0.8103698492050171</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.2448127567768097</v>
+        <v>0.7472782135009766</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7551872730255127</v>
+        <v>0.2527217864990234</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.2161757498979568</v>
+        <v>0.7035643458366394</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7838242053985596</v>
+        <v>0.2964356541633606</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.1989434808492661</v>
+        <v>0.1961428076028824</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8010565638542175</v>
+        <v>0.8038572072982788</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5221021175384521</v>
+        <v>0.5106052160263062</v>
       </c>
       <c r="C160" t="n">
-        <v>0.4778979122638702</v>
+        <v>0.4893947839736938</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.1871319115161896</v>
+        <v>0.7489398121833801</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8128681182861328</v>
+        <v>0.2510601580142975</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.2114973068237305</v>
+        <v>0.4596025347709656</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7885026931762695</v>
+        <v>0.5403974652290344</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.1416243612766266</v>
+        <v>0.09775735437870026</v>
       </c>
       <c r="C163" t="n">
-        <v>0.858375608921051</v>
+        <v>0.9022426009178162</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.2662107348442078</v>
+        <v>0.2972410917282104</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7337892651557922</v>
+        <v>0.7027589082717896</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.1615225523710251</v>
+        <v>0.6612581610679626</v>
       </c>
       <c r="C165" t="n">
-        <v>0.8384774923324585</v>
+        <v>0.3387418389320374</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.2584889233112335</v>
+        <v>0.3087955117225647</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7415111064910889</v>
+        <v>0.6912044286727905</v>
       </c>
       <c r="D166" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.166238859295845</v>
+        <v>0.09314918518066406</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8337611556053162</v>
+        <v>0.9068508148193359</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -3113,10 +3113,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.1498335003852844</v>
+        <v>0.1692750453948975</v>
       </c>
       <c r="C168" t="n">
-        <v>0.8501664996147156</v>
+        <v>0.8307249546051025</v>
       </c>
       <c r="D168" t="n">
         <v>1</v>
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.2565800845623016</v>
+        <v>0.6492359638214111</v>
       </c>
       <c r="C169" t="n">
-        <v>0.743419885635376</v>
+        <v>0.3507640361785889</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.6322277784347534</v>
+        <v>0.8813281059265137</v>
       </c>
       <c r="C170" t="n">
-        <v>0.367772251367569</v>
+        <v>0.1186719089746475</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.3025273084640503</v>
+        <v>0.2898298501968384</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6974726915359497</v>
+        <v>0.7101701498031616</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
